--- a/CashFlow/KSU_cashflow.xlsx
+++ b/CashFlow/KSU_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>527000000.0</v>
+        <v>11800000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>539000000.0</v>
+        <v>21700000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>408200000.0</v>
+        <v>27800000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>271000000.0</v>
+        <v>15300000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>153200000.0</v>
+        <v>15100000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>500000.0</v>
@@ -1012,10 +1012,10 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>44400000.0</v>
+        <v>1515000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>16000000.0</v>
+        <v>1491000000.0</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
